--- a/input_data/input_data_4.xlsx
+++ b/input_data/input_data_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A28F7-A562-4458-B568-A1D268EB5639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678B461-B22B-476F-8EDA-FD5B86DE05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46920" yWindow="-8445" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>node</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>s4</t>
+  </si>
+  <si>
+    <t>max_online</t>
+  </si>
+  <si>
+    <t>max_offline</t>
   </si>
 </sst>
 </file>
@@ -657,162 +663,162 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -828,155 +834,155 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -995,17 +1001,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1051,14 +1057,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1078,14 +1084,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1120,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1138,133 +1144,133 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1284,14 +1290,14 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1358,7 +1364,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1396,133 +1402,133 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1542,12 +1548,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1584,9 +1590,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1640,162 +1646,162 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1814,155 +1820,155 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1982,14 +1988,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2016,155 +2022,155 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2183,20 +2189,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2323,155 +2329,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2484,27 +2490,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2542,13 +2549,19 @@
         <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2591,8 +2604,14 @@
       <c r="N2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2633,6 +2652,12 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2649,9 +2674,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2708,20 +2733,20 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2747,7 +2772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
@@ -2773,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -2799,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2839,155 +2864,155 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3006,9 +3031,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -3029,14 +3054,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -3053,7 +3078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3072,7 +3097,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3090,133 +3115,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3237,19 +3262,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3257,7 +3282,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3265,7 +3290,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
@@ -3273,7 +3298,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
@@ -3281,7 +3306,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
@@ -3289,7 +3314,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
@@ -3297,7 +3322,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
@@ -3305,7 +3330,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -3313,7 +3338,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -3321,7 +3346,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -3329,7 +3354,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -3337,7 +3362,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -3345,7 +3370,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -3353,7 +3378,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -3361,7 +3386,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -3369,7 +3394,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -3377,7 +3402,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -3385,7 +3410,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -3393,7 +3418,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -3401,7 +3426,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -3409,7 +3434,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -3417,7 +3442,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -3425,7 +3450,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -3433,7 +3458,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>

--- a/input_data/input_data_4.xlsx
+++ b/input_data/input_data_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678B461-B22B-476F-8EDA-FD5B86DE05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C89D8-89A2-4872-A9D9-9B6D7C0A7A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>node</t>
   </si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t>ramp_up</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>source</t>
   </si>
   <si>
     <t>source_sink</t>
@@ -663,162 +657,162 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -834,155 +828,155 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -997,74 +991,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1084,31 +1078,31 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1126,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1144,133 +1138,133 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1290,43 +1284,43 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1364,7 +1358,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1402,133 +1396,133 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1548,30 +1542,30 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
       </c>
       <c r="B2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1590,43 +1584,43 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -1646,162 +1640,162 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1820,155 +1814,155 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1988,22 +1982,22 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2022,155 +2016,155 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2183,26 +2177,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -2231,16 +2225,16 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2275,44 +2269,6 @@
         <v>0</v>
       </c>
       <c r="L2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2329,155 +2285,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2490,28 +2446,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2519,13 +2475,13 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -2540,30 +2496,30 @@
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -2608,56 +2564,6 @@
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2674,9 +2580,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2727,43 +2633,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2772,12 +2678,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -2795,58 +2701,6 @@
         <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2864,155 +2718,155 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3031,14 +2885,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3054,31 +2908,31 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3097,7 +2951,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3115,133 +2969,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3262,19 +3116,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3282,7 +3136,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3290,7 +3144,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v/>
@@ -3298,7 +3152,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
@@ -3306,7 +3160,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
@@ -3314,7 +3168,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
@@ -3322,7 +3176,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
@@ -3330,7 +3184,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -3338,7 +3192,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -3346,7 +3200,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -3354,7 +3208,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -3362,7 +3216,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -3370,7 +3224,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -3378,7 +3232,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -3386,7 +3240,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -3394,7 +3248,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -3402,7 +3256,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -3410,7 +3264,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -3418,7 +3272,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -3426,7 +3280,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -3434,7 +3288,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -3442,7 +3296,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -3450,7 +3304,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -3458,7 +3312,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>

--- a/input_data/input_data_4.xlsx
+++ b/input_data/input_data_4.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C89D8-89A2-4872-A9D9-9B6D7C0A7A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDAD939-23CC-4CC4-BF8D-C20DEB2C08BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
     <sheet name="nodes" sheetId="1" r:id="rId2"/>
     <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId4"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId5"/>
-    <sheet name="node_history" sheetId="19" r:id="rId6"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId7"/>
-    <sheet name="cf" sheetId="7" r:id="rId8"/>
-    <sheet name="inflow" sheetId="3" r:id="rId9"/>
-    <sheet name="price" sheetId="4" r:id="rId10"/>
-    <sheet name="markets" sheetId="5" r:id="rId11"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
-    <sheet name="risk" sheetId="17" r:id="rId14"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
-    <sheet name="constraints" sheetId="14" r:id="rId18"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="groups" sheetId="22" r:id="rId4"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
+    <sheet name="node_history" sheetId="19" r:id="rId7"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
+    <sheet name="cf" sheetId="7" r:id="rId9"/>
+    <sheet name="inflow" sheetId="3" r:id="rId10"/>
+    <sheet name="price" sheetId="4" r:id="rId11"/>
+    <sheet name="markets" sheetId="5" r:id="rId12"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
+    <sheet name="risk" sheetId="17" r:id="rId15"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
+    <sheet name="constraints" sheetId="14" r:id="rId19"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>node</t>
   </si>
@@ -271,6 +272,12 @@
   </si>
   <si>
     <t>max_offline</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -821,6 +828,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="str">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v/>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="str">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="str">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -987,11 +1213,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1070,7 +1296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1276,7 +1502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -1534,7 +1760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1576,7 +1802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1632,7 +1858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1806,7 +2032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -1974,7 +2200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -2005,173 +2231,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="str">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="str">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="str">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="str">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2278,6 +2337,173 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="str">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="str">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="str">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2573,6 +2799,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E494AE9-16C3-4342-B8A1-0EA6DB833D1E}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -2631,7 +2883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2710,7 +2962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2877,7 +3129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2900,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -3106,223 +3358,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="str">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="str">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="str">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="str">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>